--- a/Documentation/Compression_Ratios_on_Prod_SiteMaster_Data.xlsx
+++ b/Documentation/Compression_Ratios_on_Prod_SiteMaster_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\lslnas07.takedapharm.tpna.com\CitrixUnity\User_Data\UserDesktop\AZZ8863\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8C436E-40C0-4B9D-A89B-C6BE77605AE7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B5E35D-F0DE-4DA0-B0E2-492D382D7AB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{EE4FB1CC-6D96-4466-989F-2B5A09ACE5EE}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="COUNTRY_LEVEL_COMPRESSION" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COUNTRY_LEVEL_COMPRESSION!$A$1:$G$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COUNTRY_LEVEL_COMPRESSION!$A$1:$G$85</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OVERALL_COMPRESSION!$A$1:$F$87</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="104">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -330,6 +330,24 @@
   </si>
   <si>
     <t>HIGH PERCENTAGE OF INPUT RECORDS WERE DUPLICATES</t>
+  </si>
+  <si>
+    <t>60389</t>
+  </si>
+  <si>
+    <t>50937</t>
+  </si>
+  <si>
+    <t>18695</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>15.65%</t>
+  </si>
+  <si>
+    <t>63.29%</t>
   </si>
 </sst>
 </file>
@@ -394,15 +412,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -722,7 +737,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,46 +753,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="4">
-        <v>60375</v>
-      </c>
-      <c r="C2" s="4">
-        <v>50926</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.1565</v>
-      </c>
-      <c r="E2" s="4">
-        <v>18685</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.63300000000000001</v>
+      <c r="B2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>94</v>
@@ -790,7 +805,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2D232E-7F07-4F6C-AED6-D08FEACE7418}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -800,25 +815,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -905,10 +920,10 @@
         <v>11.177884615384601</v>
       </c>
       <c r="E5">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F5">
-        <v>68.335588633288197</v>
+        <v>68.200270635994599</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -928,10 +943,10 @@
         <v>13.2486388384755</v>
       </c>
       <c r="E6">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F6">
-        <v>68.200836820083694</v>
+        <v>67.991631799163201</v>
       </c>
       <c r="G6" t="s">
         <v>97</v>
@@ -997,10 +1012,10 @@
         <v>14.0372670807453</v>
       </c>
       <c r="E9">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F9">
-        <v>75.144508670520196</v>
+        <v>75.289017341040505</v>
       </c>
       <c r="G9" t="s">
         <v>97</v>
@@ -1641,10 +1656,10 @@
         <v>14.656771799628901</v>
       </c>
       <c r="E37">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F37">
-        <v>65.724637681159393</v>
+        <v>65.797101449275402</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -1655,19 +1670,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>1716</v>
+        <v>1724</v>
       </c>
       <c r="C38">
-        <v>1561</v>
+        <v>1569</v>
       </c>
       <c r="D38">
-        <v>9.0326340326340304</v>
+        <v>8.9907192575406008</v>
       </c>
       <c r="E38">
         <v>454</v>
       </c>
       <c r="F38">
-        <v>70.916079436258798</v>
+        <v>71.064372211599704</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -1733,10 +1748,10 @@
         <v>19.8067632850242</v>
       </c>
       <c r="E41">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F41">
-        <v>72.489959839357397</v>
+        <v>72.690763052208794</v>
       </c>
       <c r="G41" t="s">
         <v>97</v>
@@ -1859,22 +1874,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
         <v>50</v>
-      </c>
-      <c r="B47">
-        <v>221</v>
-      </c>
-      <c r="C47">
-        <v>181</v>
-      </c>
-      <c r="D47">
-        <v>18.099547511312199</v>
-      </c>
-      <c r="E47">
-        <v>67</v>
-      </c>
-      <c r="F47">
-        <v>62.983425414364604</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -1882,22 +1897,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48">
-        <v>737</v>
+        <v>221</v>
       </c>
       <c r="C48">
-        <v>578</v>
+        <v>181</v>
       </c>
       <c r="D48">
-        <v>21.5739484396201</v>
+        <v>18.099547511312199</v>
       </c>
       <c r="E48">
-        <v>272</v>
+        <v>67</v>
       </c>
       <c r="F48">
-        <v>52.941176470588204</v>
+        <v>62.983425414364604</v>
       </c>
       <c r="G48" t="s">
         <v>97</v>
@@ -1905,68 +1920,68 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49">
-        <v>11</v>
+        <v>737</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>578</v>
       </c>
       <c r="D49">
-        <v>9.0909090909090899</v>
+        <v>21.5739484396201</v>
       </c>
       <c r="E49">
-        <v>8</v>
+        <v>272</v>
       </c>
       <c r="F49">
-        <v>20</v>
+        <v>52.941176470588204</v>
       </c>
       <c r="G49" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50">
-        <v>660</v>
+        <v>11</v>
       </c>
       <c r="C50">
-        <v>572</v>
+        <v>10</v>
       </c>
       <c r="D50">
-        <v>13.3333333333333</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="E50">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="F50">
-        <v>72.027972027971998</v>
+        <v>20</v>
       </c>
       <c r="G50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51">
-        <v>180</v>
+        <v>660</v>
       </c>
       <c r="C51">
-        <v>146</v>
+        <v>572</v>
       </c>
       <c r="D51">
-        <v>18.8888888888889</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="E51">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="F51">
-        <v>69.863013698630098</v>
+        <v>72.027972027971998</v>
       </c>
       <c r="G51" t="s">
         <v>97</v>
@@ -1974,36 +1989,36 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>146</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>18.8888888888889</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>69.863013698630098</v>
       </c>
       <c r="G52" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2012,7 +2027,7 @@
         <v>2</v>
       </c>
       <c r="F53">
-        <v>33.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="G53" t="s">
         <v>96</v>
@@ -2020,68 +2035,68 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54">
-        <v>255</v>
+        <v>3</v>
       </c>
       <c r="C54">
-        <v>235</v>
+        <v>3</v>
       </c>
       <c r="D54">
-        <v>7.8431372549019596</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="F54">
-        <v>55.319148936170201</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="G54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>255</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>235</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>7.8431372549019596</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="F55">
-        <v>33.3333333333333</v>
+        <v>55.319148936170201</v>
       </c>
       <c r="G55" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C56">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
         <v>33.3333333333333</v>
-      </c>
-      <c r="E56">
-        <v>12</v>
-      </c>
-      <c r="F56">
-        <v>14.285714285714301</v>
       </c>
       <c r="G56" t="s">
         <v>96</v>
@@ -2089,22 +2104,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="G57" t="s">
         <v>96</v>
@@ -2112,22 +2127,22 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>54.838709677419402</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>11.9047619047619</v>
+        <v>0</v>
       </c>
       <c r="G58" t="s">
         <v>96</v>
@@ -2135,22 +2150,22 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C59">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D59">
-        <v>25.6410256410256</v>
+        <v>54.838709677419402</v>
       </c>
       <c r="E59">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F59">
-        <v>17.241379310344801</v>
+        <v>11.9047619047619</v>
       </c>
       <c r="G59" t="s">
         <v>96</v>
@@ -2158,45 +2173,45 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60">
-        <v>1436</v>
+        <v>78</v>
       </c>
       <c r="C60">
-        <v>1223</v>
+        <v>58</v>
       </c>
       <c r="D60">
-        <v>14.832869080779901</v>
+        <v>25.6410256410256</v>
       </c>
       <c r="E60">
-        <v>466</v>
+        <v>48</v>
       </c>
       <c r="F60">
-        <v>61.896974652493903</v>
+        <v>17.241379310344801</v>
       </c>
       <c r="G60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61">
-        <v>376</v>
+        <v>1436</v>
       </c>
       <c r="C61">
-        <v>325</v>
+        <v>1223</v>
       </c>
       <c r="D61">
-        <v>13.563829787234001</v>
+        <v>14.832869080779901</v>
       </c>
       <c r="E61">
-        <v>89</v>
+        <v>465</v>
       </c>
       <c r="F61">
-        <v>72.615384615384599</v>
+        <v>61.978740801308298</v>
       </c>
       <c r="G61" t="s">
         <v>97</v>
@@ -2204,91 +2219,91 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>376</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="D62">
-        <v>100</v>
+        <v>13.563829787234001</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>72.615384615384599</v>
       </c>
       <c r="G62" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>71.428571428571402</v>
+        <v>100</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64">
-        <v>508</v>
+        <v>7</v>
       </c>
       <c r="C64">
-        <v>431</v>
+        <v>2</v>
       </c>
       <c r="D64">
-        <v>15.157480314960599</v>
+        <v>71.428571428571402</v>
       </c>
       <c r="E64">
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="F64">
-        <v>66.357308584686805</v>
+        <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65">
-        <v>948</v>
+        <v>508</v>
       </c>
       <c r="C65">
-        <v>719</v>
+        <v>431</v>
       </c>
       <c r="D65">
-        <v>24.156118143459899</v>
+        <v>15.157480314960599</v>
       </c>
       <c r="E65">
-        <v>282</v>
+        <v>145</v>
       </c>
       <c r="F65">
-        <v>60.778859527121</v>
+        <v>66.357308584686805</v>
       </c>
       <c r="G65" t="s">
         <v>97</v>
@@ -2296,68 +2311,68 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66">
-        <v>64</v>
+        <v>949</v>
       </c>
       <c r="C66">
-        <v>39</v>
+        <v>720</v>
       </c>
       <c r="D66">
-        <v>39.0625</v>
+        <v>24.130663856691299</v>
       </c>
       <c r="E66">
-        <v>23</v>
+        <v>282</v>
       </c>
       <c r="F66">
-        <v>41.025641025641001</v>
+        <v>60.8333333333333</v>
       </c>
       <c r="G66" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67">
-        <v>230</v>
+        <v>64</v>
       </c>
       <c r="C67">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="D67">
-        <v>17.826086956521699</v>
+        <v>39.0625</v>
       </c>
       <c r="E67">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="F67">
-        <v>70.370370370370395</v>
+        <v>41.025641025641001</v>
       </c>
       <c r="G67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68">
-        <v>99</v>
+        <v>230</v>
       </c>
       <c r="C68">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="D68">
-        <v>29.292929292929301</v>
+        <v>17.826086956521699</v>
       </c>
       <c r="E68">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="F68">
-        <v>58.571428571428598</v>
+        <v>70.370370370370395</v>
       </c>
       <c r="G68" t="s">
         <v>97</v>
@@ -2365,22 +2380,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69">
-        <v>383</v>
+        <v>99</v>
       </c>
       <c r="C69">
-        <v>322</v>
+        <v>70</v>
       </c>
       <c r="D69">
-        <v>15.926892950391601</v>
+        <v>29.292929292929301</v>
       </c>
       <c r="E69">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="F69">
-        <v>72.670807453416103</v>
+        <v>58.571428571428598</v>
       </c>
       <c r="G69" t="s">
         <v>97</v>
@@ -2388,160 +2403,160 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70">
-        <v>27</v>
+        <v>383</v>
       </c>
       <c r="C70">
-        <v>27</v>
+        <v>321</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>16.1879895561358</v>
       </c>
       <c r="E70">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="F70">
-        <v>48.148148148148202</v>
+        <v>72.5856697819315</v>
       </c>
       <c r="G70" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71">
-        <v>360</v>
+        <v>27</v>
       </c>
       <c r="C71">
-        <v>283</v>
+        <v>27</v>
       </c>
       <c r="D71">
-        <v>21.3888888888889</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="F71">
-        <v>57.243816254416998</v>
+        <v>48.148148148148202</v>
       </c>
       <c r="G71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72">
-        <v>22</v>
+        <v>360</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="D72">
-        <v>100</v>
+        <v>21.3888888888889</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>57.243816254416998</v>
       </c>
       <c r="G72" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73">
-        <v>1679</v>
+        <v>22</v>
       </c>
       <c r="C73">
-        <v>1466</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>12.6861226920786</v>
+        <v>100</v>
       </c>
       <c r="E73">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>73.260572987721702</v>
+        <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>1679</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>1466</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>12.6861226920786</v>
       </c>
       <c r="E74">
-        <v>5</v>
+        <v>391</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>73.328785811732601</v>
       </c>
       <c r="G74" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75">
-        <v>455</v>
+        <v>5</v>
       </c>
       <c r="C75">
-        <v>356</v>
+        <v>5</v>
       </c>
       <c r="D75">
-        <v>21.758241758241802</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>168</v>
+        <v>5</v>
       </c>
       <c r="F75">
-        <v>52.808988764044898</v>
+        <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76">
-        <v>359</v>
+        <v>455</v>
       </c>
       <c r="C76">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="D76">
-        <v>14.2061281337047</v>
+        <v>21.758241758241802</v>
       </c>
       <c r="E76">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="F76">
-        <v>70.454545454545496</v>
+        <v>52.528089887640398</v>
       </c>
       <c r="G76" t="s">
         <v>97</v>
@@ -2549,22 +2564,22 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C77">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="D77">
-        <v>23.913043478260899</v>
+        <v>14.2061281337047</v>
       </c>
       <c r="E77">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F77">
-        <v>66.428571428571402</v>
+        <v>70.454545454545496</v>
       </c>
       <c r="G77" t="s">
         <v>97</v>
@@ -2572,68 +2587,68 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78">
-        <v>75</v>
+        <v>368</v>
       </c>
       <c r="C78">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="D78">
-        <v>25.3333333333333</v>
+        <v>23.913043478260899</v>
       </c>
       <c r="E78">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="F78">
-        <v>30.3571428571429</v>
+        <v>66.785714285714306</v>
       </c>
       <c r="G78" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C79">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D79">
-        <v>14.473684210526301</v>
+        <v>25.3333333333333</v>
       </c>
       <c r="E79">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F79">
-        <v>60</v>
+        <v>30.3571428571429</v>
       </c>
       <c r="G79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80">
-        <v>706</v>
+        <v>76</v>
       </c>
       <c r="C80">
-        <v>632</v>
+        <v>65</v>
       </c>
       <c r="D80">
-        <v>10.4815864022663</v>
+        <v>14.473684210526301</v>
       </c>
       <c r="E80">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="F80">
-        <v>70.0949367088608</v>
+        <v>60</v>
       </c>
       <c r="G80" t="s">
         <v>97</v>
@@ -2641,22 +2656,22 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81">
-        <v>845</v>
+        <v>706</v>
       </c>
       <c r="C81">
-        <v>747</v>
+        <v>632</v>
       </c>
       <c r="D81">
-        <v>11.5976331360947</v>
+        <v>10.4815864022663</v>
       </c>
       <c r="E81">
-        <v>262</v>
+        <v>189</v>
       </c>
       <c r="F81">
-        <v>64.926372155287794</v>
+        <v>70.0949367088608</v>
       </c>
       <c r="G81" t="s">
         <v>97</v>
@@ -2664,68 +2679,68 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>845</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>747</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>11.5976331360947</v>
       </c>
       <c r="E82">
-        <v>4</v>
+        <v>262</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>64.926372155287794</v>
       </c>
       <c r="G82" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83">
-        <v>2239</v>
+        <v>4</v>
       </c>
       <c r="C83">
-        <v>1885</v>
+        <v>4</v>
       </c>
       <c r="D83">
-        <v>15.8106297454221</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>631</v>
+        <v>4</v>
       </c>
       <c r="F83">
-        <v>66.525198938992006</v>
+        <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84">
-        <v>25889</v>
+        <v>2239</v>
       </c>
       <c r="C84">
-        <v>22880</v>
+        <v>1885</v>
       </c>
       <c r="D84">
-        <v>11.622696898296599</v>
+        <v>15.8106297454221</v>
       </c>
       <c r="E84">
-        <v>8806</v>
+        <v>631</v>
       </c>
       <c r="F84">
-        <v>61.512237762237802</v>
+        <v>66.525198938992006</v>
       </c>
       <c r="G84" t="s">
         <v>97</v>
@@ -2733,70 +2748,93 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85">
-        <v>4</v>
+        <v>25890</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>22881</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>11.622247972189999</v>
       </c>
       <c r="E85">
-        <v>4</v>
+        <v>8818</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>61.461474585901001</v>
       </c>
       <c r="G85" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="C86">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F86">
-        <v>77.027027027027003</v>
+        <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87">
+        <v>74</v>
+      </c>
+      <c r="C87">
+        <v>74</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>17</v>
+      </c>
+      <c r="F87">
+        <v>77.027027027027003</v>
+      </c>
+      <c r="G87" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>4</v>
       </c>
-      <c r="B87">
-        <v>692</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
+      <c r="B88">
+        <v>694</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
         <v>100</v>
       </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
         <v>95</v>
       </c>
     </row>
